--- a/APM_files/144912093/fullDisconnection.xlsx
+++ b/APM_files/144912093/fullDisconnection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/Dev/workspace/APM_files/144912093/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C04F8B47-0091-754A-B415-2926588073A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBDC9AF-A06B-0342-BE8F-4FD3216F1959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17320" xr2:uid="{1F9B5D9F-BEF2-274E-BC1B-2D2BAFBFD297}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="15120" windowHeight="17440" xr2:uid="{1F9B5D9F-BEF2-274E-BC1B-2D2BAFBFD297}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
